--- a/data.xlsx
+++ b/data.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="55">
   <si>
     <t>Username</t>
   </si>
@@ -42,12 +42,6 @@
     <t>Result</t>
   </si>
   <si>
-    <t>fish</t>
-  </si>
-  <si>
-    <t>whale</t>
-  </si>
-  <si>
     <t>donkey</t>
   </si>
   <si>
@@ -60,13 +54,136 @@
     <t>doggo</t>
   </si>
   <si>
-    <t>kitty</t>
-  </si>
-  <si>
     <t>Xavir</t>
   </si>
   <si>
     <t>Pass</t>
+  </si>
+  <si>
+    <t>Henrie</t>
+  </si>
+  <si>
+    <t>lion</t>
+  </si>
+  <si>
+    <t>Lucy</t>
+  </si>
+  <si>
+    <t>anteater</t>
+  </si>
+  <si>
+    <t>Karun</t>
+  </si>
+  <si>
+    <t>baboon</t>
+  </si>
+  <si>
+    <t>Mark</t>
+  </si>
+  <si>
+    <t>dinosaur</t>
+  </si>
+  <si>
+    <t>blowfish</t>
+  </si>
+  <si>
+    <t>Matt</t>
+  </si>
+  <si>
+    <t>bunnies</t>
+  </si>
+  <si>
+    <t>Divine</t>
+  </si>
+  <si>
+    <t>cats</t>
+  </si>
+  <si>
+    <t>Miki</t>
+  </si>
+  <si>
+    <t>wolf</t>
+  </si>
+  <si>
+    <t>Emile</t>
+  </si>
+  <si>
+    <t>marmoset</t>
+  </si>
+  <si>
+    <t>Jean-Paul</t>
+  </si>
+  <si>
+    <t>Chris</t>
+  </si>
+  <si>
+    <t>Anilde</t>
+  </si>
+  <si>
+    <t>giraffe</t>
+  </si>
+  <si>
+    <t>elephant</t>
+  </si>
+  <si>
+    <t>alpaca</t>
+  </si>
+  <si>
+    <t>Jordan</t>
+  </si>
+  <si>
+    <t>Cooper</t>
+  </si>
+  <si>
+    <t>Mitch</t>
+  </si>
+  <si>
+    <t>Manish</t>
+  </si>
+  <si>
+    <t>Melvin</t>
+  </si>
+  <si>
+    <t>Moshood</t>
+  </si>
+  <si>
+    <t>Kyle</t>
+  </si>
+  <si>
+    <t>Stephen</t>
+  </si>
+  <si>
+    <t>sugarglider</t>
+  </si>
+  <si>
+    <t>tiger</t>
+  </si>
+  <si>
+    <t>Koala</t>
+  </si>
+  <si>
+    <t>gorilla</t>
+  </si>
+  <si>
+    <t>armadillo</t>
+  </si>
+  <si>
+    <t>syberian tiger</t>
+  </si>
+  <si>
+    <t>polar bear</t>
+  </si>
+  <si>
+    <t>penguin</t>
+  </si>
+  <si>
+    <t>coconut</t>
+  </si>
+  <si>
+    <t>dragon</t>
+  </si>
+  <si>
+    <t>Fail</t>
   </si>
 </sst>
 </file>
@@ -385,15 +502,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C7"/>
+  <dimension ref="A1:C26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="10.0" collapsed="false"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="10.0" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
@@ -412,21 +529,21 @@
         <v>2</v>
       </c>
       <c r="B2" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="C2" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B3" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C3" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
@@ -434,10 +551,10 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>13</v>
+        <v>53</v>
       </c>
       <c r="C4" t="s">
-        <v>15</v>
+        <v>54</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
@@ -445,10 +562,10 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C5" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
@@ -456,21 +573,230 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>9</v>
+        <v>45</v>
       </c>
       <c r="C6" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="B7" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C7" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>13</v>
+      </c>
+      <c r="B8" t="s">
+        <v>21</v>
+      </c>
+      <c r="C8" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
         <v>15</v>
+      </c>
+      <c r="B9" t="s">
+        <v>16</v>
+      </c>
+      <c r="C9" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>17</v>
+      </c>
+      <c r="B10" t="s">
+        <v>18</v>
+      </c>
+      <c r="C10" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>19</v>
+      </c>
+      <c r="B11" t="s">
+        <v>20</v>
+      </c>
+      <c r="C11" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>22</v>
+      </c>
+      <c r="B12" t="s">
+        <v>23</v>
+      </c>
+      <c r="C12" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>24</v>
+      </c>
+      <c r="B13" t="s">
+        <v>25</v>
+      </c>
+      <c r="C13" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>26</v>
+      </c>
+      <c r="B14" t="s">
+        <v>27</v>
+      </c>
+      <c r="C14" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>28</v>
+      </c>
+      <c r="B15" t="s">
+        <v>29</v>
+      </c>
+      <c r="C15" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>30</v>
+      </c>
+      <c r="B16" t="s">
+        <v>35</v>
+      </c>
+      <c r="C16" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>31</v>
+      </c>
+      <c r="B17" t="s">
+        <v>34</v>
+      </c>
+      <c r="C17" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>32</v>
+      </c>
+      <c r="B18" t="s">
+        <v>33</v>
+      </c>
+      <c r="C18" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>36</v>
+      </c>
+      <c r="B19" t="s">
+        <v>50</v>
+      </c>
+      <c r="C19" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>37</v>
+      </c>
+      <c r="B20" t="s">
+        <v>44</v>
+      </c>
+      <c r="C20" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>38</v>
+      </c>
+      <c r="B21" t="s">
+        <v>47</v>
+      </c>
+      <c r="C21" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>39</v>
+      </c>
+      <c r="B22" t="s">
+        <v>48</v>
+      </c>
+      <c r="C22" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>40</v>
+      </c>
+      <c r="B23" t="s">
+        <v>49</v>
+      </c>
+      <c r="C23" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>41</v>
+      </c>
+      <c r="B24" t="s">
+        <v>51</v>
+      </c>
+      <c r="C24" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>42</v>
+      </c>
+      <c r="B25" t="s">
+        <v>46</v>
+      </c>
+      <c r="C25" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>43</v>
+      </c>
+      <c r="B26" t="s">
+        <v>52</v>
+      </c>
+      <c r="C26" t="s">
+        <v>12</v>
       </c>
     </row>
   </sheetData>
